--- a/biology/Zoologie/Ischyropsalis_strandi/Ischyropsalis_strandi.xlsx
+++ b/biology/Zoologie/Ischyropsalis_strandi/Ischyropsalis_strandi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischyropsalis strandi est une espèce d'opilions dyspnois de la famille des Ischyropsalididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Italie[1]. Elle se rencontre en Vénétie et au Trentin-Haut-Adige dans des grottes des Préalpes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Italie. Elle se rencontre en Vénétie et au Trentin-Haut-Adige dans des grottes des Préalpes.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 5,7 mm[3].
-Les mâles mesurent de 4,6 à 6,2 mm et les femelles de 5,4 à 6,9 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 5,7 mm.
+Les mâles mesurent de 4,6 à 6,2 mm et les femelles de 5,4 à 6,9 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Kratochvíl en 1936.
-Ischyropsalis ruffoi[4] a été placée en synonymie par Juberthie en 1963[5].
+Ischyropsalis ruffoi a été placée en synonymie par Juberthie en 1963.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Embrik Strand[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Embrik Strand.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Kratochvíl, 1936 : « Ischyropsalis Strandi nov. sp., un Opilion cavernicole nouveau d’Italie. » Festschrift zum 60. Geburtstage von Professor Dr. Embrik Strand, vol. 1, p. 248–251.</t>
         </is>
